--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T15:26:19-03:00</t>
+    <t>2023-09-06T23:59:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:23:51-03:00</t>
+    <t>2023-11-03T17:06:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T18:47:13-03:00</t>
+    <t>2023-12-28T19:04:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1038,7 +1038,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
     <t>MedicationDispense.performer:Dispensador.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
